--- a/ETL Mapping for Project 2.xlsx
+++ b/ETL Mapping for Project 2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="62">
   <si>
     <t>Overview:</t>
   </si>
@@ -104,7 +104,13 @@
     <t>Business Rule</t>
   </si>
   <si>
-    <t xml:space="preserve">anime_df </t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>cleaned_anime_df</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>Name</t>
@@ -113,18 +119,12 @@
     <t>string</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>cleaned_anime_df</t>
+    <t>Title</t>
   </si>
   <si>
     <t>Tags</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Release_year</t>
   </si>
   <si>
@@ -149,15 +149,18 @@
     <t>added due to an index reset. leave as is</t>
   </si>
   <si>
+    <t>pass through</t>
+  </si>
+  <si>
+    <t>convert to int</t>
+  </si>
+  <si>
     <t>pulling data from netflix originals csv</t>
   </si>
   <si>
     <t>NetflixOriginals.csv</t>
   </si>
   <si>
-    <t>netflixog_df</t>
-  </si>
-  <si>
     <t>new_netflix_df</t>
   </si>
   <si>
@@ -173,28 +176,37 @@
     <t>added this column to extracted data. Fill it with 'Netflix'</t>
   </si>
   <si>
-    <t>Pulling just information on usa youtube videos</t>
+    <t>convert to in</t>
+  </si>
+  <si>
+    <t>Pulling just information on usa youtube videos and fill in as 'YT Video'</t>
   </si>
   <si>
     <t>usvideos.csv</t>
   </si>
   <si>
-    <t>usvideos_df</t>
+    <t>yt_usvideos</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>yt_usvideos</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
     <t>publish_time</t>
   </si>
   <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>perform transformations in python before exporting to sql</t>
+  </si>
+  <si>
     <t>added this column to the table</t>
+  </si>
+  <si>
+    <t>convert to integer</t>
   </si>
   <si>
     <t>combine into a master table</t>
@@ -216,7 +228,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m, d"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -227,13 +242,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -247,13 +262,9 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,17 +297,17 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -525,14 +536,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="3" width="18.57"/>
-    <col customWidth="1" min="8" max="8" width="24.43"/>
-    <col customWidth="1" min="9" max="9" width="26.71"/>
-    <col customWidth="1" min="10" max="10" width="19.0"/>
-    <col customWidth="1" min="11" max="11" width="16.57"/>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="2" max="3" width="16.25"/>
+    <col customWidth="1" min="8" max="8" width="21.38"/>
+    <col customWidth="1" min="9" max="9" width="23.38"/>
+    <col customWidth="1" min="10" max="10" width="16.63"/>
+    <col customWidth="1" min="11" max="11" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -567,189 +578,195 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="N10" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="N13" s="7">
+        <v>44566.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -757,12 +774,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -770,11 +787,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>1.0</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -793,8 +810,24 @@
       <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -814,22 +847,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="3" width="18.57"/>
-    <col customWidth="1" min="8" max="8" width="24.43"/>
-    <col customWidth="1" min="9" max="9" width="26.71"/>
-    <col customWidth="1" min="10" max="10" width="19.0"/>
-    <col customWidth="1" min="11" max="11" width="16.57"/>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="2" max="3" width="16.25"/>
+    <col customWidth="1" min="8" max="8" width="21.38"/>
+    <col customWidth="1" min="9" max="9" width="23.38"/>
+    <col customWidth="1" min="10" max="10" width="16.63"/>
+    <col customWidth="1" min="11" max="11" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -856,174 +889,180 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1.0</v>
+      <c r="N13" s="7">
+        <v>44566.0</v>
       </c>
     </row>
     <row r="14">
       <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -1031,17 +1070,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>43</v>
+      <c r="A29" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1051,33 +1090,49 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="A34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>2.0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>3.0</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1098,22 +1153,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="3" width="18.57"/>
-    <col customWidth="1" min="8" max="8" width="24.43"/>
-    <col customWidth="1" min="9" max="9" width="26.71"/>
-    <col customWidth="1" min="10" max="10" width="19.0"/>
-    <col customWidth="1" min="11" max="11" width="16.57"/>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="2" max="3" width="16.25"/>
+    <col customWidth="1" min="8" max="8" width="21.38"/>
+    <col customWidth="1" min="9" max="9" width="23.38"/>
+    <col customWidth="1" min="10" max="10" width="16.63"/>
+    <col customWidth="1" min="11" max="11" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1140,177 +1195,183 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="8"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1.0</v>
+      <c r="N13" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -1318,17 +1379,19 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7"/>
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -1336,31 +1399,44 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="3"/>
+      <c r="A33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>34</v>
+      <c r="A34" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>52</v>
+      <c r="A35" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>36</v>
+      <c r="A36" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1381,22 +1457,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="3" width="18.57"/>
-    <col customWidth="1" min="8" max="8" width="24.43"/>
-    <col customWidth="1" min="9" max="9" width="26.71"/>
-    <col customWidth="1" min="10" max="10" width="57.86"/>
-    <col customWidth="1" min="11" max="11" width="16.57"/>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="2" max="3" width="16.25"/>
+    <col customWidth="1" min="8" max="8" width="21.38"/>
+    <col customWidth="1" min="9" max="9" width="23.38"/>
+    <col customWidth="1" min="10" max="10" width="50.63"/>
+    <col customWidth="1" min="11" max="11" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>53</v>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1423,103 +1499,106 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2.0</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3.0</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1527,25 +1606,28 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>24</v>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1553,25 +1635,28 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>24</v>
+      <c r="N12" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1579,25 +1664,28 @@
         <v>1.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
+      <c r="L13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1605,13 +1693,13 @@
         <v>1.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -1619,12 +1707,12 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1633,13 +1721,13 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1647,13 +1735,13 @@
         <v>2.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1661,12 +1749,12 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1675,13 +1763,13 @@
         <v>2.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -1694,7 +1782,7 @@
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1706,10 +1794,10 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1720,10 +1808,10 @@
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1736,7 +1824,7 @@
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1751,11 +1839,11 @@
         <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -1763,18 +1851,18 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>56</v>
+      <c r="A28" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>57</v>
+      <c r="A30" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -1783,14 +1871,16 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="3"/>
+      <c r="A33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="35">
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
